--- a/data/trans_dic/P59A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.07177855643044911</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06846405581201458</v>
+        <v>0.06846405581201455</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0519007673355632</v>
+        <v>0.05052583297470898</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08371202314820661</v>
+        <v>0.08233086290713439</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06136715186061983</v>
+        <v>0.05955259142982514</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05676748101098363</v>
+        <v>0.05812522959519116</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02855550235498361</v>
+        <v>0.02991815913473543</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04865750374237231</v>
+        <v>0.04751265011218447</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03763120165616605</v>
+        <v>0.03952287383636163</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03499467615422409</v>
+        <v>0.03600267460761226</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04404783747812878</v>
+        <v>0.0436822969152684</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06937334544742807</v>
+        <v>0.06695980542595872</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05402679856716536</v>
+        <v>0.05288132652417</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05156525978948461</v>
+        <v>0.05120087937720121</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1083189156314584</v>
+        <v>0.1120998115891063</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.155156205994882</v>
+        <v>0.1587391438259997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1361162203408617</v>
+        <v>0.1320685862254335</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1470386709282212</v>
+        <v>0.1491613953958553</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06949556296658391</v>
+        <v>0.06869559192494672</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09770061616391081</v>
+        <v>0.09531495845235781</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08852896955226275</v>
+        <v>0.08551900647026854</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07537392001276787</v>
+        <v>0.07882252630460966</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07841788302299947</v>
+        <v>0.07794207820757126</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1090948360384659</v>
+        <v>0.1091115262450576</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09398453926162016</v>
+        <v>0.09557221270289462</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09119076723718937</v>
+        <v>0.09099860484820678</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1202504105568254</v>
+        <v>0.1179633685659172</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1326370164428458</v>
+        <v>0.1328734532760238</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1629328426428495</v>
+        <v>0.1616766349653453</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1451690098033519</v>
+        <v>0.1430277449911692</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09574582466743056</v>
+        <v>0.09785031682661278</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1437029579224385</v>
+        <v>0.1439561192754477</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.143188257801791</v>
+        <v>0.1431137264562359</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1298818566767612</v>
+        <v>0.1323048174588127</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1156886664476064</v>
+        <v>0.1163743326263633</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1462337357086542</v>
+        <v>0.1443228805855812</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1600115418904866</v>
+        <v>0.1593525094942129</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1448553881942944</v>
+        <v>0.1449072424531358</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1736616456038443</v>
+        <v>0.1729649522470447</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1839977215091927</v>
+        <v>0.1838418626683343</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2148533521893664</v>
+        <v>0.2139039701913089</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2005971137799033</v>
+        <v>0.1995674589528792</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1498555658191807</v>
+        <v>0.1484000538750702</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2052706028375981</v>
+        <v>0.2015104723213803</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1919654945607145</v>
+        <v>0.1932168204552216</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1723579419755155</v>
+        <v>0.1757895813745959</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1522560777409603</v>
+        <v>0.153218171664166</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.183699906407414</v>
+        <v>0.1845344491049217</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1959703714660427</v>
+        <v>0.1955586388560544</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1799491606097861</v>
+        <v>0.182084447077951</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1774655810892682</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2029231933602925</v>
+        <v>0.2029231933602924</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1813825504446908</v>
@@ -969,7 +969,7 @@
         <v>0.1964713531971237</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1980359129913741</v>
+        <v>0.198035912991374</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1423963707017805</v>
+        <v>0.1403730208875671</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1383534736687929</v>
+        <v>0.139606010672981</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1607264542950239</v>
+        <v>0.1651169280925419</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1416930285369219</v>
+        <v>0.1414275852304459</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1290794022266255</v>
+        <v>0.1285044345332164</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1606579041935977</v>
+        <v>0.1564576167437042</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1314567185258094</v>
+        <v>0.1326542685542493</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1652550083368668</v>
+        <v>0.1651243448256199</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1489403488243131</v>
+        <v>0.1451047880802327</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1629969622484971</v>
+        <v>0.162175008994386</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1600743847486072</v>
+        <v>0.1622603941810179</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1652469400617353</v>
+        <v>0.1690354042173237</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2402758753367118</v>
+        <v>0.2484008624885755</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2632252010515633</v>
+        <v>0.2621813083925181</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2747007001765212</v>
+        <v>0.2746895765928031</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2505444772230376</v>
+        <v>0.2485334507371686</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2379743700918723</v>
+        <v>0.2275229694526866</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2846721615389839</v>
+        <v>0.2870265568058419</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2292657520633834</v>
+        <v>0.2295408571145887</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.244717596291782</v>
+        <v>0.2436462074556798</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2212121143245618</v>
+        <v>0.2203963461065498</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2511080646928687</v>
+        <v>0.2537478379442185</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2338644796647674</v>
+        <v>0.2375306033270509</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.233215895929738</v>
+        <v>0.2332788995456294</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1575515065762702</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1503672086270936</v>
+        <v>0.1503672086270935</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1194146847497842</v>
+        <v>0.1192883250571037</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1298806866018054</v>
+        <v>0.1330622766831641</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1544652409345671</v>
+        <v>0.1569155038502708</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1433836217758974</v>
+        <v>0.1440394115545076</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08587015906277999</v>
+        <v>0.0872650148974607</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.124316366439073</v>
+        <v>0.1239590629335971</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1243776321634088</v>
+        <v>0.1243983233562165</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1228639144513019</v>
+        <v>0.1232693435427596</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1069383259986586</v>
+        <v>0.1060700874764048</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1346024416814067</v>
+        <v>0.1340935647830728</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1453112758972322</v>
+        <v>0.1445842917085629</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1375699076676762</v>
+        <v>0.136518437640076</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1576245902527514</v>
+        <v>0.1593876512377565</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1723583256403832</v>
+        <v>0.1727863688644085</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1958751746090704</v>
+        <v>0.1973692777524267</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1880141013572102</v>
+        <v>0.189458792240515</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1194734612322002</v>
+        <v>0.122054940217543</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1617533920730654</v>
+        <v>0.1637317884125473</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1597631490008474</v>
+        <v>0.1598214508080293</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1541231071080858</v>
+        <v>0.1549307200925062</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.131469001982865</v>
+        <v>0.1329254811615362</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1638612981041543</v>
+        <v>0.1621343226370706</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1712687335256534</v>
+        <v>0.1721612034393245</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1636299407290932</v>
+        <v>0.1636792885984486</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>16059</v>
+        <v>15634</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>25492</v>
+        <v>25071</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16310</v>
+        <v>15828</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14600</v>
+        <v>14949</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14411</v>
+        <v>15098</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>24049</v>
+        <v>23483</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>15272</v>
+        <v>16040</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15454</v>
+        <v>15899</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>35858</v>
+        <v>35561</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>55413</v>
+        <v>53485</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>36286</v>
+        <v>35516</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>36034</v>
+        <v>35779</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33516</v>
+        <v>34686</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>47247</v>
+        <v>48338</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>36177</v>
+        <v>35101</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>37817</v>
+        <v>38363</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>35071</v>
+        <v>34668</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>48289</v>
+        <v>47110</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>35929</v>
+        <v>34707</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>33286</v>
+        <v>34809</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>63838</v>
+        <v>63451</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>87141</v>
+        <v>87155</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>63122</v>
+        <v>64189</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>63724</v>
+        <v>63590</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>89980</v>
+        <v>88269</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>114244</v>
+        <v>114447</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>152756</v>
+        <v>151579</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>170128</v>
+        <v>167619</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>62559</v>
+        <v>63934</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>104616</v>
+        <v>104800</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>131668</v>
+        <v>131599</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>137943</v>
+        <v>140516</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>162157</v>
+        <v>163118</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>232414</v>
+        <v>229377</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>297155</v>
+        <v>295931</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>323607</v>
+        <v>323722</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>129947</v>
+        <v>129426</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>158482</v>
+        <v>158348</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>201434</v>
+        <v>200544</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>235086</v>
+        <v>233879</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>97914</v>
+        <v>96963</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>149437</v>
+        <v>146700</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>176521</v>
+        <v>177671</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>183055</v>
+        <v>186700</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>213412</v>
+        <v>214761</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>291960</v>
+        <v>293286</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>363934</v>
+        <v>363169</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>402006</v>
+        <v>406776</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>32830</v>
+        <v>32364</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>29584</v>
+        <v>29851</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39939</v>
+        <v>41030</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>44519</v>
+        <v>44435</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>28942</v>
+        <v>28813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>31722</v>
+        <v>30893</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>34086</v>
+        <v>34396</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>60054</v>
+        <v>60007</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>67734</v>
+        <v>65989</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>67037</v>
+        <v>66699</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>81283</v>
+        <v>82393</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>111970</v>
+        <v>114537</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>55397</v>
+        <v>57270</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>56284</v>
+        <v>56061</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>68260</v>
+        <v>68257</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>78719</v>
+        <v>78087</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>53358</v>
+        <v>51015</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>56209</v>
+        <v>56674</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>59447</v>
+        <v>59518</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>88931</v>
+        <v>88542</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>100601</v>
+        <v>100230</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>103275</v>
+        <v>104361</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>118752</v>
+        <v>120614</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>158026</v>
+        <v>158068</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>153836</v>
+        <v>153673</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>179192</v>
+        <v>183582</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>224254</v>
+        <v>227812</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>249962</v>
+        <v>251105</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>118695</v>
+        <v>120623</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>176492</v>
+        <v>175985</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>197099</v>
+        <v>197132</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>229397</v>
+        <v>230154</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>285580</v>
+        <v>283262</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>376802</v>
+        <v>375378</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>441237</v>
+        <v>439029</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>496682</v>
+        <v>492885</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>203060</v>
+        <v>205331</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>237797</v>
+        <v>238388</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>284374</v>
+        <v>286543</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>327767</v>
+        <v>330286</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>165144</v>
+        <v>168712</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>229642</v>
+        <v>232451</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>253174</v>
+        <v>253266</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>287760</v>
+        <v>289268</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>351090</v>
+        <v>354979</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>458709</v>
+        <v>453874</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>520056</v>
+        <v>522766</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>590769</v>
+        <v>590947</v>
       </c>
     </row>
     <row r="20">
